--- a/Data_science_outputs/800pop/avg_analysis/avg_analysis_2.xlsx
+++ b/Data_science_outputs/800pop/avg_analysis/avg_analysis_2.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14084.41079696539</v>
+        <v>8497.212576942569</v>
       </c>
       <c r="C3" t="n">
         <v>6053.048928373025</v>
       </c>
       <c r="D3" t="n">
-        <v>6155.280090209275</v>
+        <v>576.0166857515222</v>
       </c>
       <c r="E3" t="n">
         <v>1851.629340266361</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7170.164572187494</v>
+        <v>3548.124252375236</v>
       </c>
       <c r="C4" t="n">
         <v>3228.906071319691</v>
       </c>
       <c r="D4" t="n">
-        <v>5853.007615429123</v>
+        <v>427.3954172529718</v>
       </c>
       <c r="E4" t="n">
         <v>547.8917119062729</v>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2651.589857534243</v>
+        <v>2665.504189041093</v>
       </c>
       <c r="C5" t="n">
         <v>1210.003571428571</v>
       </c>
       <c r="D5" t="n">
-        <v>13.97287671232882</v>
+        <v>32.60295890410961</v>
       </c>
       <c r="E5" t="n">
         <v>751.5869205479435</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7358.833818493159</v>
+        <v>5601.561525342468</v>
       </c>
       <c r="C6" t="n">
         <v>3276.965321428572</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3567267123281</v>
+        <v>149.0417726027392</v>
       </c>
       <c r="E6" t="n">
         <v>1376.553441095887</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14812.11313150686</v>
+        <v>7381.684523287677</v>
       </c>
       <c r="C7" t="n">
         <v>5061.218642857146</v>
       </c>
       <c r="D7" t="n">
-        <v>6194.630136986301</v>
+        <v>523.5343575342463</v>
       </c>
       <c r="E7" t="n">
         <v>1914.716464383561</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18786.80544520549</v>
+        <v>11460.53568630137</v>
       </c>
       <c r="C8" t="n">
         <v>8835.822357142868</v>
       </c>
       <c r="D8" t="n">
-        <v>12480</v>
+        <v>1040</v>
       </c>
       <c r="E8" t="n">
         <v>2377.865282191779</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25938.73402739736</v>
+        <v>16057.41333150689</v>
       </c>
       <c r="C9" t="n">
         <v>13639.74742857147</v>
       </c>
       <c r="D9" t="n">
-        <v>12484.65758356165</v>
+        <v>1040.00004109589</v>
       </c>
       <c r="E9" t="n">
         <v>2985.376939726026</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>20281551.54763016</v>
+        <v>12235986.11079729</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>8716390.456857169</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4315055456774375</v>
+        <v>0.7143008952600087</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>8863603.329901371</v>
+        <v>829464.0274821916</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4370278727978805</v>
+        <v>0.06778889906962672</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>2666346.249983561</v>
       </c>
       <c r="G13" t="n">
-        <v>0.131466581524682</v>
+        <v>0.2179102056703646</v>
       </c>
     </row>
   </sheetData>
